--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5BCD94-8F71-46F6-89D3-81B2C9A0D0EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBB9B5D-5B0F-48A1-8678-B6C9E9609753}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
     <t>Gravidezes - visita</t>
   </si>
   <si>
-    <t>MIFVISIT</t>
+    <t>MIF_VISIT</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1422,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBB9B5D-5B0F-48A1-8678-B6C9E9609753}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F80C8-24E6-4A53-A026-BC8BA2A0CE54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -378,9 +378,6 @@
     <t>GRVISITDATA</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>query_name</t>
   </si>
   <si>
@@ -414,12 +411,6 @@
     <t>linked_table</t>
   </si>
   <si>
-    <t>ID = ?</t>
-  </si>
-  <si>
-    <t>[data('ID')]</t>
-  </si>
-  <si>
     <t>{}</t>
   </si>
   <si>
@@ -439,6 +430,15 @@
   </si>
   <si>
     <t>MIF_VISIT</t>
+  </si>
+  <si>
+    <t>REGID = ?</t>
+  </si>
+  <si>
+    <t>[data('REGID')]</t>
+  </si>
+  <si>
+    <t>PREGID</t>
   </si>
 </sst>
 </file>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,10 +906,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1030,10 +1030,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
         <v>114</v>
@@ -1420,9 +1420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,60 +1439,60 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" t="s">
         <v>127</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -1802,9 +1802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F80C8-24E6-4A53-A026-BC8BA2A0CE54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0716C57-F1C0-42EF-BCB5-8D02E8DB5087}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="138">
   <si>
     <t>setting_name</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t>PREGID</t>
+  </si>
+  <si>
+    <t>REGID</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -844,7 +850,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,11 +1806,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,12 +1987,23 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>135</v>
       </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="b">
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0716C57-F1C0-42EF-BCB5-8D02E8DB5087}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA0FF3F-C29A-4FC8-A892-2539EE0BF173}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="140">
   <si>
     <t>setting_name</t>
   </si>
@@ -445,6 +445,12 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
   </si>
 </sst>
 </file>
@@ -968,7 +974,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,7 +1158,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
         <v>56</v>
@@ -1174,7 +1180,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
@@ -1395,7 +1401,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="F47" t="s">
         <v>60</v>
@@ -1508,11 +1514,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,6 +1563,20 @@
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1810,7 +1830,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1867,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1908,12 +1928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
+      <c r="B9" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1924,7 +1944,7 @@
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1935,7 +1955,7 @@
         <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA0FF3F-C29A-4FC8-A892-2539EE0BF173}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2FB2A2-01F7-4441-A7CC-2601CB6DC8F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="269">
   <si>
     <t>setting_name</t>
   </si>
@@ -255,18 +255,6 @@
     <t>Viagem</t>
   </si>
   <si>
-    <t>Not visited</t>
-  </si>
-  <si>
-    <t>Não visitada</t>
-  </si>
-  <si>
-    <t>Unborn</t>
-  </si>
-  <si>
-    <t>Não padido</t>
-  </si>
-  <si>
     <t>VIC</t>
   </si>
   <si>
@@ -375,9 +363,6 @@
     <t>english</t>
   </si>
   <si>
-    <t>GRVISITDATA</t>
-  </si>
-  <si>
     <t>query_name</t>
   </si>
   <si>
@@ -438,9 +423,6 @@
     <t>[data('REGID')]</t>
   </si>
   <si>
-    <t>PREGID</t>
-  </si>
-  <si>
     <t>REGID</t>
   </si>
   <si>
@@ -451,6 +433,411 @@
   </si>
   <si>
     <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
+  </si>
+  <si>
+    <t>pregnant</t>
+  </si>
+  <si>
+    <t>GRAVIDA_ESTADO</t>
+  </si>
+  <si>
+    <t>Still pregnant</t>
+  </si>
+  <si>
+    <t>Ainda grávida</t>
+  </si>
+  <si>
+    <t>Pregnancy ended</t>
+  </si>
+  <si>
+    <t>Gravidez terminou</t>
+  </si>
+  <si>
+    <t>data('GRAVIDA_ESTADO') == '1'</t>
+  </si>
+  <si>
+    <t>Status on pregnancy</t>
+  </si>
+  <si>
+    <t>data('GRAVIDA_ESTADO') == '2'</t>
+  </si>
+  <si>
+    <t>pregstat</t>
+  </si>
+  <si>
+    <t>OUTSTATUS</t>
+  </si>
+  <si>
+    <t>Status of pregnancy end</t>
+  </si>
+  <si>
+    <t>OUTDATE</t>
+  </si>
+  <si>
+    <t>Date of pregnancy end</t>
+  </si>
+  <si>
+    <t>data('OUTSTATUS') == '2'</t>
+  </si>
+  <si>
+    <t>ABMES</t>
+  </si>
+  <si>
+    <t>Length of pregnancy before miscariage</t>
+  </si>
+  <si>
+    <t>data('OUTSTATUS') == '1'</t>
+  </si>
+  <si>
+    <t>LITTERSIZE</t>
+  </si>
+  <si>
+    <t>Number of children born</t>
+  </si>
+  <si>
+    <t>inf1</t>
+  </si>
+  <si>
+    <t>Informant</t>
+  </si>
+  <si>
+    <t>Informador</t>
+  </si>
+  <si>
+    <t>data('inf1') == '2'</t>
+  </si>
+  <si>
+    <t>inf2</t>
+  </si>
+  <si>
+    <t>Other informant</t>
+  </si>
+  <si>
+    <t>Outro informador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if </t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>GRINFOS</t>
+  </si>
+  <si>
+    <t>data('inf2')</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>data('inf1')</t>
+  </si>
+  <si>
+    <t>YesNoU</t>
+  </si>
+  <si>
+    <t>GRCONS</t>
+  </si>
+  <si>
+    <t>Did the woman seek consultations during pregnancy?</t>
+  </si>
+  <si>
+    <t>CART_ANC</t>
+  </si>
+  <si>
+    <t>GRVAC</t>
+  </si>
+  <si>
+    <t>Vacina anti-tetánica durante esta gravidez?</t>
+  </si>
+  <si>
+    <t>data('GRVAC') == '1'</t>
+  </si>
+  <si>
+    <t>VACTTHI</t>
+  </si>
+  <si>
+    <t>vac. Hist</t>
+  </si>
+  <si>
+    <t>CDG_M</t>
+  </si>
+  <si>
+    <t>data('CART_ANC') == 'VIC'</t>
+  </si>
+  <si>
+    <t>CDG_C</t>
+  </si>
+  <si>
+    <t>FEDEP_M</t>
+  </si>
+  <si>
+    <t>FEDEP_C</t>
+  </si>
+  <si>
+    <t>QVFANSI_M</t>
+  </si>
+  <si>
+    <t>QVFANSI_C</t>
+  </si>
+  <si>
+    <t>TABPART</t>
+  </si>
+  <si>
+    <t>Did the woman give birth in the village?</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>LOCPAR</t>
+  </si>
+  <si>
+    <t>Where did the woman give birth?</t>
+  </si>
+  <si>
+    <t>healthstaff</t>
+  </si>
+  <si>
+    <t>ASSISTPART</t>
+  </si>
+  <si>
+    <t>Who assisted the birth?</t>
+  </si>
+  <si>
+    <t>Miscarriage</t>
+  </si>
+  <si>
+    <t>Aborto</t>
+  </si>
+  <si>
+    <t>Moved before birth</t>
+  </si>
+  <si>
+    <t>Enganou</t>
+  </si>
+  <si>
+    <t>Never pregnant</t>
+  </si>
+  <si>
+    <t>Mudou antes de parto</t>
+  </si>
+  <si>
+    <t>Estado da gravidez</t>
+  </si>
+  <si>
+    <t>Birth</t>
+  </si>
+  <si>
+    <t>Nado</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Ela/e</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Outra/o</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>Mothers mother</t>
+  </si>
+  <si>
+    <t>Avó</t>
+  </si>
+  <si>
+    <t>Other family member</t>
+  </si>
+  <si>
+    <t>Outra mebro da familia</t>
+  </si>
+  <si>
+    <t>No informant found</t>
+  </si>
+  <si>
+    <t>Nenhum informador</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Não aplicável</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Falta informacao</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Health Center</t>
+  </si>
+  <si>
+    <t>Centro de Saude</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Health Unit</t>
+  </si>
+  <si>
+    <t>Unidade de Saude Base</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>Elsewhere</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Medico</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Midwife</t>
+  </si>
+  <si>
+    <t>Parteira</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>Enfermeira/o</t>
+  </si>
+  <si>
+    <t>MA-N</t>
+  </si>
+  <si>
+    <t>Traditional birth attendant - no course</t>
+  </si>
+  <si>
+    <t>Matrona - sem curso</t>
+  </si>
+  <si>
+    <t>MA-F</t>
+  </si>
+  <si>
+    <t>Traditional birth attendant - course</t>
+  </si>
+  <si>
+    <t>Matrona - formado</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Family member</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>Neighbour</t>
+  </si>
+  <si>
+    <t>Vizinho</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No one</t>
+  </si>
+  <si>
+    <t>Ninguem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Same pregnancy since last visit</t>
+  </si>
+  <si>
+    <t>GRAVIDEZMES</t>
+  </si>
+  <si>
+    <t>data('GRAVIDEZMES') == '1'</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>ses</t>
+  </si>
+  <si>
+    <t>PREGID = ?</t>
+  </si>
+  <si>
+    <t>[data('PREGID')]</t>
+  </si>
+  <si>
+    <t>{PREGID: data('PREGID'), REGID: data('REGID'), SESDATA: data('PREGDIA')}</t>
+  </si>
+  <si>
+    <t>VISITID</t>
   </si>
 </sst>
 </file>
@@ -507,7 +894,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +910,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +944,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -562,13 +955,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -877,13 +1276,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -894,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -910,7 +1309,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -918,10 +1317,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -937,7 +1336,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -970,21 +1369,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1010,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1020,7 +1419,6 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -1040,30 +1438,38 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="11" t="s">
-        <v>128</v>
+    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="D4" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1076,13 +1482,13 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1092,109 +1498,112 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="D13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>42</v>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>12</v>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
-        <v>43</v>
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" t="s">
-        <v>45</v>
+      <c r="B19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
+      <c r="B21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>101</v>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -1209,232 +1618,1025 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" t="s">
-        <v>45</v>
+      <c r="B26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>101</v>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" t="s">
-        <v>106</v>
-      </c>
-      <c r="H33" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>30</v>
       </c>
-      <c r="F35" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>101</v>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" t="s">
-        <v>106</v>
-      </c>
-      <c r="H40" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="G42" t="s">
         <v>105</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>101</v>
+      <c r="D43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>13</v>
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" t="s">
-        <v>107</v>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6" t="s">
-        <v>49</v>
+      <c r="B47" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s">
+        <v>101</v>
+      </c>
+      <c r="H52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" t="s">
+        <v>60</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" t="s">
+        <v>143</v>
+      </c>
+      <c r="F63" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" t="s">
+        <v>146</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="D70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" t="s">
+        <v>152</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
+        <v>154</v>
+      </c>
+      <c r="G79" t="s">
+        <v>155</v>
+      </c>
+      <c r="H79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
+        <v>158</v>
+      </c>
+      <c r="G81" t="s">
+        <v>159</v>
+      </c>
+      <c r="H81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="D84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
+        <v>163</v>
+      </c>
+      <c r="I84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="D86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
+        <v>163</v>
+      </c>
+      <c r="I86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>167</v>
+      </c>
+      <c r="F90" t="s">
+        <v>168</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" t="s">
+        <v>170</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>101</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" t="s">
+        <v>167</v>
+      </c>
+      <c r="F96" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="D98" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" t="s">
+        <v>174</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="D102" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" t="s">
+        <v>104</v>
+      </c>
+      <c r="H102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="D103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" t="s">
+        <v>176</v>
+      </c>
+      <c r="G103" t="s">
+        <v>102</v>
+      </c>
+      <c r="H103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="D105" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" t="s">
+        <v>178</v>
+      </c>
+      <c r="G105" t="s">
+        <v>101</v>
+      </c>
+      <c r="H105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" t="s">
+        <v>105</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="D110" t="s">
+        <v>30</v>
+      </c>
+      <c r="F110" t="s">
+        <v>179</v>
+      </c>
+      <c r="G110" t="s">
+        <v>102</v>
+      </c>
+      <c r="H110" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="D112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" t="s">
+        <v>180</v>
+      </c>
+      <c r="G112" t="s">
+        <v>101</v>
+      </c>
+      <c r="H112" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="D117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" t="s">
+        <v>181</v>
+      </c>
+      <c r="G117" t="s">
+        <v>102</v>
+      </c>
+      <c r="H117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="D119" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" t="s">
+        <v>182</v>
+      </c>
+      <c r="G119" t="s">
+        <v>101</v>
+      </c>
+      <c r="H119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="D123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" t="s">
+        <v>167</v>
+      </c>
+      <c r="F123" t="s">
+        <v>183</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="D126" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" t="s">
+        <v>185</v>
+      </c>
+      <c r="F126" t="s">
+        <v>186</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="D129" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" t="s">
+        <v>188</v>
+      </c>
+      <c r="F129" t="s">
+        <v>189</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="16"/>
+      <c r="B131" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,68 +2645,95 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1558,8 +2787,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>128</v>
+      <c r="A3" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -1567,7 +2796,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -1576,7 +2805,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1586,11 +2815,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="C1:D1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,55 +2838,55 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1665,14 +2894,14 @@
         <v>50</v>
       </c>
       <c r="B5" t="str">
-        <f>"4"</f>
-        <v>4</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1680,14 +2909,14 @@
         <v>50</v>
       </c>
       <c r="B6" t="str">
-        <f>"5"</f>
-        <v>5</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,14 +2924,14 @@
         <v>50</v>
       </c>
       <c r="B7" t="str">
-        <f>"7"</f>
-        <v>7</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1710,28 +2939,29 @@
         <v>50</v>
       </c>
       <c r="B8" t="str">
-        <f>"9"</f>
-        <v>9</v>
+        <f>"4"</f>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"5"</f>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,13 +2969,13 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1753,13 +2983,13 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,13 +2997,13 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1781,13 +3011,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,13 +3025,13 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1809,13 +3039,464 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="str">
+        <f>"3"</f>
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="str">
+        <f>"6"</f>
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="str">
+        <f>"88"</f>
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" t="s">
+        <v>248</v>
+      </c>
+      <c r="D44" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -1826,17 +3507,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1853,10 +3534,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1864,10 +3545,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1875,10 +3556,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1886,10 +3567,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1897,7 +3578,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -1908,7 +3589,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1919,21 +3600,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>128</v>
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1941,10 +3622,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1952,10 +3633,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1963,7 +3644,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -1974,10 +3655,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1985,7 +3666,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -1996,7 +3677,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -2005,12 +3686,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2018,18 +3710,249 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:C41">
+    <sortCondition ref="A39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2FB2A2-01F7-4441-A7CC-2601CB6DC8F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B144001-20A8-4FC8-9592-3DC95DB09060}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="274">
   <si>
     <t>setting_name</t>
   </si>
@@ -831,13 +831,28 @@
     <t>PREGID = ?</t>
   </si>
   <si>
-    <t>[data('PREGID')]</t>
-  </si>
-  <si>
-    <t>{PREGID: data('PREGID'), REGID: data('REGID'), SESDATA: data('PREGDIA')}</t>
-  </si>
-  <si>
     <t>VISITID</t>
+  </si>
+  <si>
+    <t>data('LITTERSIZE') &gt;='1'</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>data('LITTERSIZE') &gt;='2'</t>
+  </si>
+  <si>
+    <t>CRIANCA</t>
+  </si>
+  <si>
+    <t>[opendatakit.getCurrentInstanceId()]</t>
+  </si>
+  <si>
+    <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), SESDATA: data('PREGDIA')}</t>
+  </si>
+  <si>
+    <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), OUTDATE: data('OUTDATE')}</t>
   </si>
 </sst>
 </file>
@@ -1369,11 +1384,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,10 +2631,121 @@
       <c r="B130" s="11" t="s">
         <v>13</v>
       </c>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
-      <c r="B131" t="s">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C131" t="s">
+        <v>267</v>
+      </c>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="D134" t="s">
+        <v>120</v>
+      </c>
+      <c r="E134" t="s">
+        <v>268</v>
+      </c>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C136" t="s">
+        <v>269</v>
+      </c>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="D139" t="s">
+        <v>120</v>
+      </c>
+      <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="16"/>
+      <c r="B143" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2632,11 +2758,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2727,12 +2853,38 @@
         <v>265</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H4" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2818,8 +2970,8 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,7 +3661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
@@ -3941,7 +4093,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s">
         <v>131</v>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B144001-20A8-4FC8-9592-3DC95DB09060}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A0715A-5ADC-4759-8588-995CECD74E09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="278">
   <si>
     <t>setting_name</t>
   </si>
@@ -853,6 +853,18 @@
   </si>
   <si>
     <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), OUTDATE: data('OUTDATE')}</t>
+  </si>
+  <si>
+    <t>Registration of 1st child</t>
+  </si>
+  <si>
+    <t>Registration of 2nd child</t>
+  </si>
+  <si>
+    <t>Registro da 1ª criança</t>
+  </si>
+  <si>
+    <t>Registro da 2ª criança</t>
   </si>
 </sst>
 </file>
@@ -1386,9 +1398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2659,8 +2671,12 @@
       <c r="D133" t="s">
         <v>28</v>
       </c>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
+      <c r="G133" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
@@ -2672,7 +2688,6 @@
         <v>268</v>
       </c>
       <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
@@ -2707,8 +2722,12 @@
       <c r="D138" t="s">
         <v>28</v>
       </c>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
+      <c r="G138" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
@@ -2760,7 +2779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
@@ -2970,7 +2989,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21:D23"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A0715A-5ADC-4759-8588-995CECD74E09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F80FD5-773D-44C1-A16D-C55AAD656528}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -852,9 +852,6 @@
     <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), SESDATA: data('PREGDIA')}</t>
   </si>
   <si>
-    <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), OUTDATE: data('OUTDATE')}</t>
-  </si>
-  <si>
     <t>Registration of 1st child</t>
   </si>
   <si>
@@ -865,6 +862,9 @@
   </si>
   <si>
     <t>Registro da 2ª criança</t>
+  </si>
+  <si>
+    <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), OUTDATE: data('OUTDATE'), ASSISTPART: data('ASSISTPART'), CART_ANC: data('CART_ANC'), CDG_C: data('CDG_C'), CDG_M: data('CDG_M'), FEDEP_C: data('FEDEP_C'), FEDEP_M: data('FEDEP_M'), GRCONS: data('GRCONS'), GRINFOS: data('GRINFOS'), GRVAC: data('GRVAC'), LITTERSIZE: data('LITTERSIZE'), LOCPAR: data('LOCPAR'), QVFANSI_C: data('QVFANSI_C'), QVFANSI_M: data('QVFANSI_M'), TABPART: data('TABPART'), VACTTHI: data('VACTTHI')}</t>
   </si>
 </sst>
 </file>
@@ -1398,9 +1398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,10 +2672,10 @@
         <v>28</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -2723,10 +2723,10 @@
         <v>28</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -2779,9 +2779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,7 +2901,7 @@
         <v>271</v>
       </c>
       <c r="G5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>121</v>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F80FD5-773D-44C1-A16D-C55AAD656528}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCB85AA-55FC-44E3-B499-A19EDCB5E884}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="277">
   <si>
     <t>setting_name</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>Makes the date widget DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>Grávida presente</t>
   </si>
   <si>
     <t>Tem cartão de CPN</t>
@@ -1303,13 +1300,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -1320,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1336,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,10 +1341,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,7 +1360,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1396,11 +1393,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -1450,1198 +1447,1194 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="D4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>197</v>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="12"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" t="s">
-        <v>99</v>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="D12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="D13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>12</v>
+      <c r="H16" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
         <v>263</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" t="s">
-        <v>264</v>
+      <c r="B18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>12</v>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
-        <v>41</v>
+      <c r="B22" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>12</v>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-    </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" t="s">
-        <v>44</v>
+      <c r="B31" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>12</v>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>30</v>
       </c>
-      <c r="F36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" t="s">
-        <v>103</v>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G38" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" t="s">
-        <v>44</v>
+      <c r="B38" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>12</v>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>30</v>
       </c>
-      <c r="F43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" t="s">
-        <v>103</v>
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" t="s">
-        <v>101</v>
-      </c>
-      <c r="H45" t="s">
-        <v>44</v>
+      <c r="B45" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>12</v>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>30</v>
       </c>
-      <c r="F50" t="s">
-        <v>59</v>
-      </c>
-      <c r="G50" t="s">
-        <v>102</v>
-      </c>
-      <c r="H50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>103</v>
+      <c r="F51" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" t="s">
-        <v>101</v>
-      </c>
-      <c r="H52" t="s">
-        <v>44</v>
+      <c r="B52" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>12</v>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6" t="s">
-        <v>49</v>
+      <c r="B57" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+      <c r="A60" s="16"/>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>142</v>
+      <c r="A61" s="11"/>
+      <c r="B61" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="B62" s="11" t="s">
-        <v>12</v>
+      <c r="B62" s="11"/>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="D63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" t="s">
-        <v>143</v>
-      </c>
-      <c r="F63" t="s">
-        <v>144</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>145</v>
+      <c r="B63" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="B65" s="11" t="s">
-        <v>12</v>
+      <c r="B65" s="11"/>
+      <c r="D65" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" t="s">
+        <v>145</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="D66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F66" t="s">
-        <v>146</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>147</v>
+      <c r="B66" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C68" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="11" t="s">
-        <v>12</v>
+      <c r="B69" s="11"/>
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="D70" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" t="s">
-        <v>149</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>150</v>
+      <c r="B70" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
-      <c r="B74" s="11" t="s">
-        <v>12</v>
+      <c r="B74" s="11"/>
+      <c r="D74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="D75" t="s">
-        <v>30</v>
-      </c>
-      <c r="F75" t="s">
-        <v>152</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>153</v>
+      <c r="B75" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
-      <c r="B78" s="11" t="s">
-        <v>12</v>
+      <c r="B78" s="11"/>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" t="s">
+        <v>153</v>
+      </c>
+      <c r="G78" t="s">
+        <v>154</v>
+      </c>
+      <c r="H78" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="D79" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" t="s">
-        <v>154</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
-      </c>
-      <c r="G79" t="s">
-        <v>155</v>
-      </c>
-      <c r="H79" t="s">
+      <c r="B79" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
-      <c r="B80" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B80" s="11"/>
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" t="s">
         <v>157</v>
+      </c>
+      <c r="F80" t="s">
+        <v>157</v>
+      </c>
+      <c r="G80" t="s">
+        <v>158</v>
+      </c>
+      <c r="H80" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="D81" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" t="s">
-        <v>158</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
-      </c>
-      <c r="G81" t="s">
-        <v>159</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="B81" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11" t="s">
-        <v>161</v>
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
-      <c r="B83" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" t="s">
-        <v>157</v>
+      <c r="B83" s="11"/>
+      <c r="D83" t="s">
+        <v>161</v>
+      </c>
+      <c r="F83" t="s">
+        <v>162</v>
+      </c>
+      <c r="I83" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="D84" t="s">
-        <v>162</v>
-      </c>
-      <c r="F84" t="s">
-        <v>163</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="B84" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="11"/>
+      <c r="D85" t="s">
+        <v>161</v>
+      </c>
+      <c r="F85" t="s">
+        <v>162</v>
+      </c>
+      <c r="I85" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="D86" t="s">
-        <v>162</v>
-      </c>
-      <c r="F86" t="s">
-        <v>163</v>
-      </c>
-      <c r="I86" t="s">
-        <v>166</v>
+      <c r="B86" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
-      <c r="B89" s="11" t="s">
-        <v>12</v>
+      <c r="B89" s="11"/>
+      <c r="D89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>166</v>
+      </c>
+      <c r="F89" t="s">
+        <v>167</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="D90" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" t="s">
-        <v>167</v>
-      </c>
-      <c r="F90" t="s">
-        <v>168</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>169</v>
+      <c r="B90" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
-      <c r="B92" s="11" t="s">
-        <v>12</v>
+      <c r="B92" s="11"/>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
+        <v>50</v>
+      </c>
+      <c r="F92" t="s">
+        <v>169</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="D93" t="s">
-        <v>25</v>
-      </c>
-      <c r="E93" t="s">
-        <v>51</v>
-      </c>
-      <c r="F93" t="s">
-        <v>170</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="B93" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
-      <c r="B95" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
+        <v>166</v>
+      </c>
+      <c r="F95" t="s">
+        <v>170</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="D96" t="s">
-        <v>25</v>
-      </c>
-      <c r="E96" t="s">
-        <v>167</v>
-      </c>
-      <c r="F96" t="s">
-        <v>171</v>
-      </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6" t="s">
+      <c r="B96" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
-      <c r="B97" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B97" s="11"/>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" t="s">
         <v>173</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="D98" t="s">
-        <v>30</v>
-      </c>
-      <c r="F98" t="s">
-        <v>174</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>175</v>
+      <c r="B98" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
-      <c r="B101" s="11" t="s">
-        <v>12</v>
+      <c r="B101" s="11"/>
+      <c r="D101" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" t="s">
+        <v>103</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F102" t="s">
+        <v>175</v>
       </c>
       <c r="G102" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="D103" t="s">
-        <v>30</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="B103" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" t="s">
         <v>176</v>
-      </c>
-      <c r="G103" t="s">
-        <v>102</v>
-      </c>
-      <c r="H103" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
-      <c r="B104" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B104" s="11"/>
+      <c r="D104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" t="s">
         <v>177</v>
+      </c>
+      <c r="G104" t="s">
+        <v>100</v>
+      </c>
+      <c r="H104" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="D105" t="s">
-        <v>30</v>
-      </c>
-      <c r="F105" t="s">
-        <v>178</v>
-      </c>
-      <c r="G105" t="s">
-        <v>101</v>
-      </c>
-      <c r="H105" t="s">
-        <v>44</v>
+      <c r="B105" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
-      <c r="B108" s="11" t="s">
-        <v>12</v>
+      <c r="B108" s="11"/>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="G108" t="s">
+        <v>104</v>
+      </c>
+      <c r="H108" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="F109" t="s">
+        <v>178</v>
       </c>
       <c r="G109" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H109" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="D110" t="s">
-        <v>30</v>
-      </c>
-      <c r="F110" t="s">
-        <v>179</v>
-      </c>
-      <c r="G110" t="s">
-        <v>102</v>
-      </c>
-      <c r="H110" t="s">
-        <v>45</v>
+      <c r="B110" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
-      <c r="B111" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C111" t="s">
-        <v>177</v>
+      <c r="B111" s="11"/>
+      <c r="D111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" t="s">
+        <v>179</v>
+      </c>
+      <c r="G111" t="s">
+        <v>100</v>
+      </c>
+      <c r="H111" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="D112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F112" t="s">
-        <v>180</v>
-      </c>
-      <c r="G112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H112" t="s">
-        <v>44</v>
+      <c r="B112" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
-      <c r="B115" s="11" t="s">
-        <v>12</v>
+      <c r="B115" s="11"/>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="D116" t="s">
-        <v>28</v>
-      </c>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
+      </c>
+      <c r="F116" t="s">
+        <v>180</v>
+      </c>
+      <c r="G116" t="s">
+        <v>101</v>
+      </c>
+      <c r="H116" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="D117" t="s">
-        <v>30</v>
-      </c>
-      <c r="F117" t="s">
-        <v>181</v>
-      </c>
-      <c r="G117" t="s">
-        <v>102</v>
-      </c>
-      <c r="H117" t="s">
-        <v>45</v>
+      <c r="B117" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C117" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
-      <c r="B118" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C118" t="s">
-        <v>177</v>
+      <c r="B118" s="11"/>
+      <c r="D118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" t="s">
+        <v>181</v>
+      </c>
+      <c r="G118" t="s">
+        <v>100</v>
+      </c>
+      <c r="H118" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="D119" t="s">
-        <v>30</v>
-      </c>
-      <c r="F119" t="s">
-        <v>182</v>
-      </c>
-      <c r="G119" t="s">
-        <v>101</v>
-      </c>
-      <c r="H119" t="s">
-        <v>44</v>
+      <c r="B119" s="11" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
-      <c r="B122" s="11" t="s">
-        <v>12</v>
+      <c r="B122" s="11"/>
+      <c r="D122" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>166</v>
+      </c>
+      <c r="F122" t="s">
+        <v>182</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="D123" t="s">
-        <v>25</v>
-      </c>
-      <c r="E123" t="s">
-        <v>167</v>
-      </c>
-      <c r="F123" t="s">
-        <v>183</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>184</v>
+      <c r="B123" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
-      <c r="B125" s="11" t="s">
-        <v>12</v>
+      <c r="B125" s="11"/>
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" t="s">
+        <v>184</v>
+      </c>
+      <c r="F125" t="s">
+        <v>185</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="D126" t="s">
-        <v>25</v>
-      </c>
-      <c r="E126" t="s">
-        <v>185</v>
-      </c>
-      <c r="F126" t="s">
-        <v>186</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>187</v>
+      <c r="B126" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
-      <c r="B128" s="11" t="s">
-        <v>12</v>
+      <c r="B128" s="11"/>
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" t="s">
+        <v>187</v>
+      </c>
+      <c r="F128" t="s">
+        <v>188</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="D129" t="s">
-        <v>25</v>
-      </c>
-      <c r="E129" t="s">
-        <v>188</v>
-      </c>
-      <c r="F129" t="s">
-        <v>189</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>190</v>
-      </c>
+      <c r="B129" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="C130" t="s">
+        <v>266</v>
       </c>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
@@ -2649,50 +2642,50 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C131" t="s">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
-      <c r="B132" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="D133" t="s">
-        <v>28</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>275</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E133" t="s">
+        <v>267</v>
+      </c>
+      <c r="G133" s="11"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="D134" t="s">
-        <v>120</v>
-      </c>
-      <c r="E134" t="s">
-        <v>268</v>
+      <c r="B134" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="C135" t="s">
+        <v>268</v>
       </c>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -2700,43 +2693,40 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C136" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
-      <c r="B137" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="D138" t="s">
-        <v>28</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>276</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E138" t="s">
+        <v>267</v>
+      </c>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="D139" t="s">
-        <v>120</v>
-      </c>
-      <c r="E139" t="s">
-        <v>268</v>
+      <c r="B139" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
@@ -2744,28 +2734,20 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
+      <c r="B141" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
       <c r="B142" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
-      <c r="B143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD80F5-C430-4F23-B07C-4493C6C076E0}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
@@ -2799,112 +2781,112 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
         <v>119</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
         <v>121</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E4" t="s">
         <v>264</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2959,7 +2941,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2967,7 +2949,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
@@ -2976,7 +2958,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3009,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -3017,657 +2999,657 @@
     </row>
     <row r="2" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
         <v>256</v>
-      </c>
-      <c r="D2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" t="s">
         <v>258</v>
-      </c>
-      <c r="D3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
         <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
         <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>87</v>
-      </c>
-      <c r="D14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
         <v>89</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>90</v>
-      </c>
-      <c r="D15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
         <v>92</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>93</v>
-      </c>
-      <c r="D16" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
         <v>136</v>
-      </c>
-      <c r="D17" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" t="s">
         <v>138</v>
-      </c>
-      <c r="D18" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
         <v>93</v>
-      </c>
-      <c r="D20" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" t="s">
         <v>198</v>
-      </c>
-      <c r="D21" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" t="s">
         <v>191</v>
-      </c>
-      <c r="D22" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" t="s">
         <v>200</v>
-      </c>
-      <c r="D24" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C25" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" t="s">
         <v>202</v>
-      </c>
-      <c r="D25" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B26" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" t="s">
         <v>204</v>
-      </c>
-      <c r="D26" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B27" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" t="s">
         <v>206</v>
-      </c>
-      <c r="D27" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B28" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" t="s">
         <v>208</v>
-      </c>
-      <c r="D28" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C29" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" t="s">
         <v>210</v>
-      </c>
-      <c r="D29" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C30" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" t="s">
         <v>202</v>
-      </c>
-      <c r="D30" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B31" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" t="s">
         <v>212</v>
-      </c>
-      <c r="D31" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" t="str">
         <f>"88"</f>
         <v>88</v>
       </c>
       <c r="C32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" t="s">
         <v>214</v>
-      </c>
-      <c r="D32" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
       <c r="C33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D33" t="s">
         <v>216</v>
-      </c>
-      <c r="D33" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" t="s">
         <v>218</v>
       </c>
-      <c r="C34" t="s">
-        <v>219</v>
-      </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" t="s">
         <v>220</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>221</v>
-      </c>
-      <c r="D35" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" t="s">
         <v>223</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>224</v>
-      </c>
-      <c r="D36" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" t="s">
         <v>226</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>227</v>
-      </c>
-      <c r="D37" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" t="s">
         <v>229</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>230</v>
-      </c>
-      <c r="D38" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" t="s">
         <v>232</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>233</v>
-      </c>
-      <c r="D39" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" t="s">
         <v>235</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>236</v>
-      </c>
-      <c r="D40" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" t="s">
         <v>238</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>239</v>
-      </c>
-      <c r="D41" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" t="s">
         <v>241</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>242</v>
-      </c>
-      <c r="D42" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" t="s">
         <v>244</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>245</v>
-      </c>
-      <c r="D43" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" t="s">
         <v>247</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>248</v>
-      </c>
-      <c r="D44" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" t="s">
         <v>250</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>251</v>
-      </c>
-      <c r="D45" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" t="s">
         <v>253</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>254</v>
-      </c>
-      <c r="D46" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3705,7 +3687,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
@@ -3716,7 +3698,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -3727,7 +3709,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -3738,7 +3720,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -3749,7 +3731,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -3760,7 +3742,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -3771,10 +3753,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3782,7 +3764,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -3793,7 +3775,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -3804,7 +3786,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -3815,7 +3797,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -3826,7 +3808,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -3837,7 +3819,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -3848,7 +3830,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -3859,7 +3841,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>25</v>
@@ -3870,7 +3852,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -3881,10 +3863,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -3892,7 +3874,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -3903,7 +3885,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -3914,7 +3896,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -3925,7 +3907,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -3936,10 +3918,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -3947,10 +3929,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -3958,7 +3940,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -3969,7 +3951,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -3980,7 +3962,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -3991,10 +3973,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -4002,7 +3984,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -4013,7 +3995,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -4024,7 +4006,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -4035,7 +4017,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -4046,7 +4028,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -4057,7 +4039,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -4068,7 +4050,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
@@ -4079,7 +4061,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>25</v>
@@ -4090,10 +4072,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" t="b">
         <v>0</v>
@@ -4101,10 +4083,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
         <v>130</v>
-      </c>
-      <c r="B40" t="s">
-        <v>131</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -4112,10 +4094,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCB85AA-55FC-44E3-B499-A19EDCB5E884}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34D0102-B852-4590-8306-4C06E91125BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="282">
   <si>
     <t>setting_name</t>
   </si>
@@ -862,6 +862,21 @@
   </si>
   <si>
     <t>{PREGID: opendatakit.getCurrentInstanceId(), REGID: data('REGID'), REGDIA: data('PREGDIA'), OUTDATE: data('OUTDATE'), ASSISTPART: data('ASSISTPART'), CART_ANC: data('CART_ANC'), CDG_C: data('CDG_C'), CDG_M: data('CDG_M'), FEDEP_C: data('FEDEP_C'), FEDEP_M: data('FEDEP_M'), GRCONS: data('GRCONS'), GRINFOS: data('GRINFOS'), GRVAC: data('GRVAC'), LITTERSIZE: data('LITTERSIZE'), LOCPAR: data('LOCPAR'), QVFANSI_C: data('QVFANSI_C'), QVFANSI_M: data('QVFANSI_M'), TABPART: data('TABPART'), VACTTHI: data('VACTTHI')}</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>muac</t>
+  </si>
+  <si>
+    <t>muacbig</t>
+  </si>
+  <si>
+    <t>More than 342 cm</t>
+  </si>
+  <si>
+    <t>data('muacbig') != null</t>
   </si>
 </sst>
 </file>
@@ -1393,11 +1408,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,283 +1516,278 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>13</v>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="D12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="D17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E26" t="s">
         <v>50</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F26" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>30</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F29" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6" t="s">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>131</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F33" t="s">
         <v>55</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G33" t="s">
         <v>101</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>94</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C34" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>100</v>
-      </c>
-      <c r="H37" t="s">
-        <v>43</v>
+      <c r="B37" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>13</v>
+      <c r="D39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>12</v>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" t="s">
-        <v>104</v>
-      </c>
-      <c r="H41" t="s">
-        <v>45</v>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1785,59 +1795,61 @@
         <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" t="s">
-        <v>100</v>
-      </c>
-      <c r="H44" t="s">
-        <v>43</v>
+      <c r="B44" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>13</v>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>12</v>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
-        <v>46</v>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1845,197 +1857,192 @@
         <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" t="s">
-        <v>43</v>
+      <c r="B51" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>13</v>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" t="s">
-        <v>102</v>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="G56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="D62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" t="s">
-        <v>143</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="D65" t="s">
-        <v>131</v>
-      </c>
-      <c r="F65" t="s">
-        <v>145</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="B67" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" t="s">
-        <v>147</v>
+      <c r="B67" s="11"/>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>142</v>
+      </c>
+      <c r="F67" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="D69" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" t="s">
-        <v>148</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>149</v>
+      <c r="B69" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="B70" s="11" t="s">
-        <v>13</v>
+      <c r="B70" s="11"/>
+      <c r="D70" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2044,7 +2051,7 @@
         <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2060,13 +2067,13 @@
         <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2084,258 +2091,254 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="C77" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="D78" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" t="s">
-        <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>153</v>
-      </c>
-      <c r="G78" t="s">
-        <v>154</v>
-      </c>
-      <c r="H78" t="s">
-        <v>155</v>
+      <c r="B78" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
-      <c r="B79" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" t="s">
-        <v>156</v>
+      <c r="B79" s="11"/>
+      <c r="D79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" t="s">
+        <v>151</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="D80" t="s">
-        <v>25</v>
-      </c>
-      <c r="E80" t="s">
-        <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>157</v>
-      </c>
-      <c r="G80" t="s">
-        <v>158</v>
-      </c>
-      <c r="H80" t="s">
-        <v>159</v>
+      <c r="B80" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
-      </c>
-      <c r="I83" t="s">
-        <v>163</v>
+        <v>153</v>
+      </c>
+      <c r="G83" t="s">
+        <v>154</v>
+      </c>
+      <c r="H83" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11" t="s">
-        <v>164</v>
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
-      </c>
-      <c r="I85" t="s">
-        <v>165</v>
+        <v>157</v>
+      </c>
+      <c r="G85" t="s">
+        <v>158</v>
+      </c>
+      <c r="H85" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11" t="s">
-        <v>13</v>
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
-      <c r="B88" s="11" t="s">
-        <v>12</v>
+      <c r="B88" s="11"/>
+      <c r="D88" t="s">
+        <v>161</v>
+      </c>
+      <c r="F88" t="s">
+        <v>162</v>
+      </c>
+      <c r="I88" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="D89" t="s">
-        <v>25</v>
-      </c>
-      <c r="E89" t="s">
-        <v>166</v>
-      </c>
-      <c r="F89" t="s">
-        <v>167</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>168</v>
+      <c r="B89" s="11" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
-      <c r="B90" s="11" t="s">
-        <v>13</v>
+      <c r="B90" s="11"/>
+      <c r="D90" t="s">
+        <v>161</v>
+      </c>
+      <c r="F90" t="s">
+        <v>162</v>
+      </c>
+      <c r="I90" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="D92" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" t="s">
-        <v>50</v>
-      </c>
-      <c r="F92" t="s">
-        <v>169</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>100</v>
+      <c r="B92" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
-      <c r="B94" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" t="s">
+        <v>166</v>
+      </c>
+      <c r="F94" t="s">
+        <v>167</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="D95" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" t="s">
-        <v>166</v>
-      </c>
-      <c r="F95" t="s">
-        <v>170</v>
-      </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6" t="s">
-        <v>171</v>
+      <c r="B95" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="D97" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="E97" t="s">
+        <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11" t="s">
-        <v>96</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
-      <c r="B100" s="11" t="s">
-        <v>12</v>
+      <c r="B100" s="11"/>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
+        <v>166</v>
+      </c>
+      <c r="F100" t="s">
+        <v>170</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="D101" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" t="s">
-        <v>103</v>
-      </c>
-      <c r="H101" t="s">
-        <v>47</v>
+      <c r="B101" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -2345,69 +2348,69 @@
         <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>175</v>
-      </c>
-      <c r="G102" t="s">
-        <v>101</v>
-      </c>
-      <c r="H102" t="s">
-        <v>44</v>
+        <v>173</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C103" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="D104" t="s">
-        <v>30</v>
-      </c>
-      <c r="F104" t="s">
-        <v>177</v>
-      </c>
-      <c r="G104" t="s">
-        <v>100</v>
-      </c>
-      <c r="H104" t="s">
-        <v>43</v>
+      <c r="B104" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
-      <c r="B106" s="11" t="s">
-        <v>13</v>
+      <c r="B106" s="11"/>
+      <c r="D106" t="s">
+        <v>28</v>
+      </c>
+      <c r="G106" t="s">
+        <v>103</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
-      <c r="B107" s="11" t="s">
-        <v>12</v>
+      <c r="B107" s="11"/>
+      <c r="D107" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" t="s">
+        <v>175</v>
+      </c>
+      <c r="G107" t="s">
+        <v>101</v>
+      </c>
+      <c r="H107" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="D108" t="s">
-        <v>28</v>
-      </c>
-      <c r="G108" t="s">
-        <v>104</v>
-      </c>
-      <c r="H108" t="s">
-        <v>45</v>
+      <c r="B108" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C108" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -2417,67 +2420,69 @@
         <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C110" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="D111" t="s">
-        <v>30</v>
-      </c>
-      <c r="F111" t="s">
-        <v>179</v>
-      </c>
-      <c r="G111" t="s">
-        <v>100</v>
-      </c>
-      <c r="H111" t="s">
-        <v>43</v>
+      <c r="B111" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
-      <c r="B113" s="11" t="s">
-        <v>13</v>
+      <c r="B113" s="11"/>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="G113" t="s">
+        <v>104</v>
+      </c>
+      <c r="H113" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
-      <c r="B114" s="11" t="s">
-        <v>12</v>
+      <c r="B114" s="11"/>
+      <c r="D114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" t="s">
+        <v>178</v>
+      </c>
+      <c r="G114" t="s">
+        <v>101</v>
+      </c>
+      <c r="H114" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="D115" t="s">
-        <v>28</v>
-      </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6" t="s">
-        <v>46</v>
+      <c r="B115" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C115" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -2487,189 +2492,183 @@
         <v>30</v>
       </c>
       <c r="F116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G116" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C117" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="D118" t="s">
-        <v>30</v>
-      </c>
-      <c r="F118" t="s">
-        <v>181</v>
-      </c>
-      <c r="G118" t="s">
-        <v>100</v>
-      </c>
-      <c r="H118" t="s">
-        <v>43</v>
+      <c r="B118" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
-      <c r="B120" s="11" t="s">
-        <v>13</v>
+      <c r="B120" s="11"/>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
-      <c r="B121" s="11" t="s">
-        <v>12</v>
+      <c r="B121" s="11"/>
+      <c r="D121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" t="s">
+        <v>180</v>
+      </c>
+      <c r="G121" t="s">
+        <v>101</v>
+      </c>
+      <c r="H121" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="D122" t="s">
-        <v>25</v>
-      </c>
-      <c r="E122" t="s">
-        <v>166</v>
-      </c>
-      <c r="F122" t="s">
-        <v>182</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>183</v>
+      <c r="B122" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
-      <c r="B123" s="11" t="s">
-        <v>13</v>
+      <c r="B123" s="11"/>
+      <c r="D123" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" t="s">
+        <v>181</v>
+      </c>
+      <c r="G123" t="s">
+        <v>100</v>
+      </c>
+      <c r="H123" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="D125" t="s">
-        <v>25</v>
-      </c>
-      <c r="E125" t="s">
-        <v>184</v>
-      </c>
-      <c r="F125" t="s">
-        <v>185</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>186</v>
+      <c r="B125" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
-      <c r="B127" s="11" t="s">
-        <v>12</v>
+      <c r="B127" s="11"/>
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" t="s">
+        <v>166</v>
+      </c>
+      <c r="F127" t="s">
+        <v>182</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="D128" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" t="s">
-        <v>187</v>
-      </c>
-      <c r="F128" t="s">
-        <v>188</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>189</v>
+      <c r="B128" s="11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
-      <c r="B130" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C130" t="s">
-        <v>266</v>
-      </c>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" t="s">
+        <v>184</v>
+      </c>
+      <c r="F130" t="s">
+        <v>185</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="D132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>274</v>
+      <c r="B132" s="11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="D133" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="E133" t="s">
-        <v>267</v>
-      </c>
-      <c r="G133" s="11"/>
+        <v>187</v>
+      </c>
+      <c r="F133" t="s">
+        <v>188</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
@@ -2685,7 +2684,7 @@
         <v>94</v>
       </c>
       <c r="C135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -2705,10 +2704,10 @@
         <v>28</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -2721,7 +2720,6 @@
         <v>267</v>
       </c>
       <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
@@ -2734,19 +2732,71 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="C140" t="s">
+        <v>268</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="D143" t="s">
+        <v>119</v>
+      </c>
+      <c r="E143" t="s">
+        <v>267</v>
+      </c>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="16"/>
-      <c r="B142" t="s">
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2968,11 +3018,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21:D23"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,6 +3702,21 @@
         <v>254</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>278</v>
+      </c>
+      <c r="B47" t="str">
+        <f>"555"</f>
+        <v>555</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3663,8 +3728,8 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34D0102-B852-4590-8306-4C06E91125BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC8A368-ADA7-4B59-940E-53F0A55870F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="288">
   <si>
     <t>setting_name</t>
   </si>
@@ -877,6 +877,24 @@
   </si>
   <si>
     <t>data('muacbig') != null</t>
+  </si>
+  <si>
+    <t>data('LITTERSIZE') &gt;='3'</t>
+  </si>
+  <si>
+    <t>data('LITTERSIZE') &gt;='4'</t>
+  </si>
+  <si>
+    <t>Registro da 3ª criança</t>
+  </si>
+  <si>
+    <t>Registration of 3th child</t>
+  </si>
+  <si>
+    <t>Registration of 4th child</t>
+  </si>
+  <si>
+    <t>Registro da 4ª criança</t>
   </si>
 </sst>
 </file>
@@ -1408,11 +1426,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2784,19 +2802,139 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="C145" t="s">
+        <v>282</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="D148" t="s">
+        <v>119</v>
+      </c>
+      <c r="E148" t="s">
+        <v>267</v>
+      </c>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C150" t="s">
+        <v>283</v>
+      </c>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="D153" t="s">
+        <v>119</v>
+      </c>
+      <c r="E153" t="s">
+        <v>267</v>
+      </c>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="16"/>
-      <c r="B147" t="s">
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="11"/>
+      <c r="B156" t="s">
+        <v>96</v>
+      </c>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
+      <c r="B157" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="16"/>
+      <c r="B159" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3725,17 +3863,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4027,21 +4165,21 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -4049,10 +4187,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -4060,10 +4198,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -4071,7 +4209,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -4082,7 +4220,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
         <v>30</v>
@@ -4093,7 +4231,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
         <v>30</v>
@@ -4104,10 +4242,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -4115,43 +4253,43 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" t="b">
+      <c r="C38" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -4159,7 +4297,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
         <v>130</v>
@@ -4168,9 +4306,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:C41">
-    <sortCondition ref="A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C36">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
+++ b/app/config/tables/GRAVIDA_VISIT/forms/GRAVIDA_VISIT/GRAVIDA_VISIT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC8A368-ADA7-4B59-940E-53F0A55870F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AB917C-11CB-41C4-92C6-C6E33238AA58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
@@ -2951,7 +2951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
